--- a/uploads/Advocate.xlsx
+++ b/uploads/Advocate.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,109 +413,9 @@
         <v>Category</v>
       </c>
     </row>
-    <row r="2" xml:space="preserve">
-      <c r="A2">
-        <v>57</v>
-      </c>
-      <c r="B2" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-ACCOUNTANT
-Summary
-To achieve a job as an Accountant that utilizes my accounting, communication, analytical &amp; leadership skills.
-Highlights
-MS Office (Excel, Word, PowerPoint), SAP R/3, Adobe Reader, QuickBooks, Lacerte, Prosystems &amp; Tax base
-Accounts Payable Processes &amp; Management
-Invoices/Expense Reports/Payment Transactions
-Corporate Accounting &amp; Bookkeeping
-Finalization of Trial Balance &amp; Balance Sheet/Income Statement.
-Spreadsheets &amp; Accounting Reports
-Tax Reporting, Planning &amp; Filing of returns.
-Handle Customer Relations.
-Journal Entries &amp; General Ledger
-Bank Reconciliation &amp; General Ledger.
-Teambuilding &amp; Staff Supervision
-Experience
-09/2014 to Current
-Accountant Company Name
-Working for all Clients in USA Implemented Quickbooks Accounting v.
-2013 and 2016 for all the Companies including but not limited to chart of accounts.
-Implemented Quicbooks payroll v.2016 from scratch Working on processing of journal entries, accounts payable &amp; receivables using
-Prosystems software.
-Bookkeeping of small and midsized companies Worked on bank reconciliation, cash management and financial statements analysis.
-Preparation and finalization of federal and multi state tax returns for Individuals &amp; Corporate using Lacerte software.
-Worked on preparing and processing payroll returns and sales and use tax returns Worked on preparation of W2's and 1099.
-Lead in finalizing monthly and yearly accounting closing entries.
-Perform MS Office Excel spreadsheets and databases for financial reporting for financial reporting.
-In process of learning VLookup and Pivot table.
-LeadForus, Nonprofit Organization Apr'14- Nov'14 Working on processing of accounting entries.
-06/2013 to 11/2013
-SAP Consultant Company Name
-Configured G/L Masters, Accounts Payable, Accounts Receivable, Cash Journals, House banks, Chart of Accounts, Posting Keys,
-Customer/Vendor Accounts Groups, &amp; Customer/ Vendor Masters Creation.
-Created Input /Output Tax &amp; Withholding Tax, Company Specific Code (Z Code), COPA (Costing Based Profitability Analysis) &amp;
-Number Ranges.
-Defined Fiscal year variant, Posting periods, Tolerance groups, Document types &amp; number ranges.
-Worked on creation of new Vendor Account &amp; Vendor Master &amp; created monthly MIS reports.
-Posted Incoming Invoice &amp; made payments.
-02/2011 to 05/2013
-Financial Analyst Company Name
-Worked with multiple clients performing two part role: as an auditor &amp; tax preparation.
-Conducted Audit for various clients.
-Identified key operational risk factors of clients and suggested focus approach to mitigate the risk.
-Carried analytical procedures like comparing financial ratios to industry standards to evaluate performance.
-Reconciled sub-ledger &amp; general ledger account balance.
-Performed due diligence for a private equity client to understand &amp; evaluate a potential business.
-Lead for a project of Private Equity which involved work like setting up Companies &amp; LLP's, preparing structure of the entities &amp; valuation
-report, valuation of funds &amp; client coordination.
-Prepared, Finalized &amp; filed tax returns.
-Prepared &amp; Reconciled journal entries, balance sheets &amp; Income statement of various clients.
-Maintained accurate account &amp; data reconciliation including sub-ledgers, journals &amp; other financial documents.
-Lead as a coordinator with the internal auditors of various clients.
-Overviewed day to day operations of finance &amp; secretarial department.
-Involved in recruiting, training, supervising &amp; evaluating department staff.
-04/2009 to 12/2010
-Accountant Company Name
-Reconciled journal entries &amp; lead as coordinator with the internal audit team.
-Worked on Merger/Amalgamation, prepared agenda, notice, annual reports to compile Annual Account Prepared balance sheets &amp; Income
-statement of various group companies.
-Worked as a liaison officer for Stock Exchange, Bankers, Solicitors &amp; other external regulators/government bodies for mergers/acquisitions,
-agreements, dematerialization of shares.
-Worked as a legal member in preparation of Code of Conduct for a company &amp; Drafting Agreements.
-Interacting with clients to resolve their complex issues &amp; guide on tax planning &amp; business valuations.
-Worked as a Support Officer to redress investor grievances.
-Worked as a team leader in preparation of MIS Reports /control charts for shareholding pattern &amp; directorship details for Foreign
-Companies.
-Education
-Pursuing Certified Public Accountant (CPA), Boston, MA CPA Candidate University of Mumbai ï¼​ State , India
-Mar'11
-LLB : Law City India Law
-Labor Laws, Constitutional law, Contract Act, Environmental law, Interpretation of Statues, Public Intern-ational law, Business Law, Company
-Law &amp; Intellectual Property Rights.
-Company Secretary Jun'07-Dec'10 Courses: Company Law, Economic laws, Tax Laws, Cost &amp; Management Accounting, Information
-Technology &amp; Systems Audit, Corporate Restructuring, Valuation, Drafting, Financial, Treasury &amp; Forex Management, Labor law, Secretarial
-Audit, Due Diligence. Institute of Company Secretaries of India (ICSI) ï¼​ State , India
-Mar '08
-Bachelors : Commerce University of Mumbai ï¼​ State , India Commerce
-Financial Accounting &amp; Auditing, Business Management, Economics, Management Accounting, Cost Accounting, Export, Business
-Communication, Business Development, Tax Management &amp; Business law.
-Skills
-Accounting, accounts payable, Accounts Payable, Accounts Receivable, acquisitions, Adobe, approach, Auditing, Trial Balance, balance, Balance
-Sheet, balance sheets, Bank Reconciliation, Bookkeeping, Business Communication, Business Development, Business Law, Business
-Management, cash management, charts, closing, Corporate Accounting, Cost Accounting, Costing, Certified Public Accountant, CPA, client,
-Clients, Customer Relations, databases, Dec, Drafting, Due Diligence, Economics, Equity, Expense Reports, Filing, finance, Financial, Financial
-Accounting, financial reporting, financial statements, focus, Forex, funds, General Ledger, government, Information Technology, Intellectual
-Property, internal audit, Interpretation, Lacerte, team leader, Teambuilding, ledger, Law, legal, MA, mergers, Excel spreadsheets, Excel,
-Exchange, MS Office, PowerPoint, Word, MIS, processing payroll, payroll v, Pivot table, Processes, QuickBooks, Quickbooks Accounting v,
-recruiting, Reporting, sales, SAP R/3, Secretarial, Spreadsheets, Staff Supervision, supervising, Tax Laws, tax planning, Tax, tax preparation, tax
-returns, Treasury, Valuation, annual reports</v>
-      </c>
-      <c r="C2" t="str">
-        <v>Advocate</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C1"/>
   </ignoredErrors>
 </worksheet>
 </file>